--- a/medicine/Mort/Liste_des_nécropoles_royales/Liste_des_nécropoles_royales.xlsx
+++ b/medicine/Mort/Liste_des_nécropoles_royales/Liste_des_nécropoles_royales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Algérie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mausolée royal de Maurétanie, nécropole des anciens rois de Maurétanie
 Mausolée royal des Djeddar, nécropole des anciens rois du Ouarsenis.</t>
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cathédrale Notre-Dame-de-l'Assomption-et-Saint-Étienne à Spire, tombes de huit empereurs et rois allemands.
 Cathédrale de Berlin à Berlin, nécropole des rois de Prusse.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Arabie saoudite</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cimetière de Al Oud à Riyad</t>
         </is>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Autriche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Crypte des Capucins à Vienne
 Mausolée de l'empereur Ferdinand II à Graz</t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Belgique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Crypte royale de l'église Notre-Dame de Laeken
 Cathédrale Saints-Michel-et-Gudule de Bruxelles (tombe d'Isabelle-Claire-Eugénie d'Autriche et Albert d'Autriche)
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Brésil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Monument de l'Ipiranga
 Cathédrale de Petrópolis</t>
@@ -688,7 +712,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,7 +730,9 @@
           <t>Bulgarie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Monastère de Rila (tombeau de Boris III)</t>
         </is>
@@ -718,7 +744,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -736,7 +762,9 @@
           <t>Chine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Mausolée de l'empereur Qin (près de la ville de Xi'an)
 Tombes impériales des dynasties Ming et Qing
@@ -753,7 +781,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,7 +799,9 @@
           <t>Corée</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Tombes royales de la dynastie Joseon, locations variées dans la Corée du Sud (et deux dans la Corée du Nord)</t>
         </is>
@@ -783,7 +813,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -801,7 +831,9 @@
           <t>Danemark</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Cathédrale de Roskilde
 Église Saint-Bendt à Ringsted
@@ -815,7 +847,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -833,7 +865,9 @@
           <t>Égypte</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Pyramides nubiennes
 Pyramides d'Égypte
@@ -852,7 +886,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -870,7 +904,9 @@
           <t>Espagne</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>L'Escurial, nécropole des rois et infants d'Espagne.
 Monastère de las Huelgas de Burgos, nécropole des rois de Castille
@@ -897,7 +933,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -915,7 +951,9 @@
           <t>Éthiopie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cathédrale de la Sainte-Trinité d'Addis-Abeba (tombeau d'Haïlé Sélassié Ier)
 Mausolée de Ba'eta Le Mariam à Addis-Abeba (tombeau de Menelik II)</t>
@@ -928,7 +966,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -946,7 +984,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Nécropole royale de la basilique de Saint-Denis, toutes les dynasties depuis Dagobert Ier.
 Hôtel des Invalides à Paris (tombeaux de Napoléon Ier, Napoléon II, Joseph Bonaparte, Jérôme Bonaparte, de son épouse Catherine de Wurtemberg et de leur fils Jérôme Napoléon Charles Bonaparte).
@@ -980,7 +1020,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -998,7 +1038,9 @@
           <t>Grèce</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Nécropole royale de Tatoï
 Nécropole royale d'Aigai à Vergina, Philippe II.</t>
@@ -1011,7 +1053,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1029,7 +1071,9 @@
           <t>Hongrie</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Basilique de Székesfehérvár</t>
         </is>
@@ -1041,7 +1085,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1059,9 +1103,11 @@
           <t>Irak</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Tombes royales d'Ur[1]</t>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tombes royales d'Ur</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1117,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1089,7 +1135,9 @@
           <t>Iran</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Shah-Abdol-Azim à Ray, Téhéran
 Sanctuaire de Fatima Masoumeh à Qom</t>
@@ -1102,7 +1150,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1120,7 +1168,9 @@
           <t>Italie</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Mausolée d'Auguste
 Mausolée d'Hadrien regroupant les cendres des empereurs romains d'Hadrien à Caracalla
@@ -1146,7 +1196,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1164,7 +1214,9 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Temple de Sennyū-ji à Kyoto
 Cimetière impérial Musashi à l'ouest de Tokyo</t>
@@ -1177,7 +1229,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1195,7 +1247,9 @@
           <t>Jordanie</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Mausolée royal du palais Raghdan, à Amman</t>
         </is>
@@ -1207,7 +1261,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1225,7 +1279,9 @@
           <t>Liechtenstein</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Château de Valtice, République tchèque
 Cathédrale Saint-Florin de Vaduz (tombeau de François-Joseph II)</t>
@@ -1238,7 +1294,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1256,7 +1312,9 @@
           <t>Lituanie</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Église de l'Assomption à Maišiagala (tombeau du grand duc Olgierd)
 Cathédrale de Vilnius</t>
@@ -1269,7 +1327,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1287,7 +1345,9 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Cathédrale Notre-Dame de Luxembourg</t>
         </is>
@@ -1299,7 +1359,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1317,7 +1377,9 @@
           <t>Maroc</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Mausolée Mohammed-V à Rabat
 Mausolée d'al Mutamid ibn Abbad à Aghmat, roi de Séville. Construit en 1970.
@@ -1337,7 +1399,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1355,7 +1417,9 @@
           <t>Monaco</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Cathédrale Notre-Dame-Immaculée de Monaco
 Chapelle de la Paix</t>
@@ -1368,7 +1432,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1386,7 +1450,9 @@
           <t>Norvège</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Citadelle d'Akershus à Oslo
 Tombeau de saint Olaf à la cathédrale de Nidaros, Trondheim.</t>
@@ -1399,7 +1465,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1417,7 +1483,9 @@
           <t>Pays-Bas</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Nouvelle Église à Delft
 Huis Doorn (Mausolée de Guillaume II)</t>
@@ -1430,7 +1498,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1448,7 +1516,9 @@
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Cathédrale du Wawel à Cracovie
 Cathédrale à Płock
@@ -1462,7 +1532,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1480,7 +1550,9 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Abbaye d'Alcobaça à Alcobaça.
 Monastère de la Sainte-Croix de Coïmbre à Coimbra
@@ -1501,7 +1573,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1519,7 +1591,9 @@
           <t>Roumanie</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Monastère de Curtea de Argeş</t>
         </is>
@@ -1531,7 +1605,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1549,7 +1623,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Abbaye de Westminster à Londres
 Chapelle Saint-Georges à Windsor
@@ -1576,7 +1652,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1594,7 +1670,9 @@
           <t>Russie</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Cathédrale de l'Archange-Saint-Michel de Moscou
 Mausolée de Serguiev Possad (tombeau de Boris Godounov)
@@ -1610,7 +1688,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1628,7 +1706,9 @@
           <t>Serbie</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Mausolée royal d'Oplenac
 Cathédrale Saint-Michel de Belgrade (tombeaux de Miloš Ier Obrenović et de Michel III Obrenović)
@@ -1643,7 +1723,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1661,7 +1741,9 @@
           <t>Slovénie</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Couvent de Kostanjevica à Nova Gorica, nécropole en exil des derniers Bourbons descendant de Louis XV, notamment le roi Charles X, son fils le comte de Marnes et son petit-fils le comte de Chambord et sa nièce la comtesse de Marnes, fille de Louis XVI et Marie-Antoinette.</t>
         </is>
@@ -1673,7 +1755,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1691,7 +1773,9 @@
           <t>Suède</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Cathédrale d'Uppsala
 Cathédrale de Västerås
@@ -1707,7 +1791,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1725,7 +1809,9 @@
           <t>Tchéquie</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>Cathédrale Saint-Guy de Prague.
 Basilique Saint-Georges de Prague.
@@ -1739,7 +1825,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1757,7 +1843,9 @@
           <t>Thaïlande</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Ho Phra That Montien et Phra Thinang Chakri Maha Prasat, deux temples dans le Grand Palais de Bangkok, cendres des souverains thaïlandais de la dynastie Chakri</t>
         </is>
@@ -1769,7 +1857,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1787,7 +1875,9 @@
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Tourbet El Bey à Tunis</t>
         </is>
@@ -1799,7 +1889,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1817,7 +1907,9 @@
           <t>Turquie</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>Mosquée Süleymaniye à Istanbul (tombeaux de Soliman Ier le Magnifique, de Soliman II et d'Ahmet II)
 Mosquée neuve à Istanbul (tombeaux de Mehmed IV, de Mustafa II, d'Ahmet III, de Mahmud Ier, d'Osman III et de Murad V)
@@ -1834,7 +1926,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1852,7 +1944,9 @@
           <t>Vatican</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Nécropole Papale de la Basilique Saint-Pierre
 Liste des nécropoles papales hors Basilique Saint-Pierre</t>
@@ -1865,7 +1959,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_royales</t>
+          <t>Liste_des_nécropoles_royales</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1883,7 +1977,9 @@
           <t>Viêt Nam</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Mausolées de la ville de Hué</t>
         </is>
